--- a/validation/whipple.xlsx
+++ b/validation/whipple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryshan/Toby Playpad Dropbox/Shannon Ryan/GitHub/pyBLOSSUM/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/shannon_ryan_deakin_edu_au/Documents/Documents/GitHub/pyBLOSSUM/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D8950-9EF6-3548-8046-F09C2ED081CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B09D8950-9EF6-3548-8046-F09C2ED081CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA6021C-A02B-474D-97A9-BF7861C6D00E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23840" windowHeight="21100" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BLC" sheetId="3" r:id="rId1"/>
@@ -416,7 +416,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6528,7 +6528,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E7FA7087-BD89-B84D-807E-B9B7BEBE2506}">
   <sheetPr codeName="Chart1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6539,7 +6539,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9315963" cy="6073913"/>
+    <xdr:ext cx="9277089" cy="6041199"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6886,30 +6886,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AAB81D-62CB-444D-AD6B-EA18466F1627}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>2.7130000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>2.7130000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>97</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.1</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>13.555367894997389</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.2</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>8.749577879124967</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.3</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>6.7728517434550355</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.4</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>5.64758652482797</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.5</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>4.9051983027709305</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.6</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>4.3716698987562639</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.7</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>3.9661138646142788</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.8</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>3.6453454093499968</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.9</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>3.3840114922849733</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>3.1661563813760392</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.1000000000000001</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>2.9811897064422679</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1.2</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>2.8217800163956128</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.3</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>2.6826754753818549</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.4</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>2.5600059256766197</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1.5</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>2.4508505511809404</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.6</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>2.3529596394937693</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1.7</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>2.2645696071942965</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1.8</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>2.184276540847581</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1.9</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>2.1109476131681371</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>2.04365768977482</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.1</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>1.9816430959876339</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.2000000000000002</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>1.9242673242818198</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.2999999999999998</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>1.8709952099117562</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.4</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>1.8213732155748832</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2.5</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>1.7750141918602236</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2.6</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>1.7315854632713119</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2.7</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>1.6907994170967922</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2.8</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>1.6524059982167891</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2.9</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>1.6161866710780459</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>1.5819495224152393</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3.1</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>1.5495252591609074</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3.2</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>1.5187639149053505</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3.3</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>1.4895321216843744</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>3.4</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>1.4617108362037372</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>3.5</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>1.4351934339223593</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>3.6</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>1.4098841028685543</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3.7</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>1.3856964831884802</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3.8</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>1.3625525093261315</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>3.9</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>1.3403814202098832</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>1.3191189094584765</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4.0999999999999996</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>1.2987063928531815</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4.2</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>1.2790903744761444</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4.3</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>1.2602218962307554</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.4000000000000004</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>1.2420560581223858</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>4.5</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>1.2245515988274673</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>4.5999999999999996</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>1.2076705278234598</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>4.7</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>1.1913778017751324</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>4.8</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>1.1756410390385632</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>4.9000000000000004</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>1.1604302671040592</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>1.1457176985926496</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5.0999999999999996</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>1.131477532079489</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5.2</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>1.1176857745664273</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5.3</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1.1043200828852249</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5.4</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>1.0913596216984369</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5.5</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>1.0787849360898221</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>5.6</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>1.0665778370107322</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>5.7</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>1.0547212980818055</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>5.8</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>1.0431993624473903</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>5.9</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>1.03199705854916</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>6</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>1.0211003238300054</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>6.1</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>1.0104959355034007</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>6.2</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>1.0001714476302141</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6.3</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>0.99011513383702809</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>6.4</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>0.98031593508968784</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>6.5</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>0.98085463523078875</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>6.6</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>0.98208077547021499</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>6.7</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>0.98330691570964113</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>6.8</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0.98453305594906726</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>6.9</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>0.98575919618849339</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0.98698533642791952</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7.1</v>
       </c>
@@ -8185,12 +8185,8 @@
       <c r="E92">
         <v>0.98821147666734566</v>
       </c>
-      <c r="G92">
-        <f>(1.853+0.397*(E11/E92)^(-0.565))/COS(RADIANS(70))</f>
-        <v>7.9412491118227937</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.2</v>
       </c>
@@ -8204,7 +8200,7 @@
         <v>0.98943761690677179</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.3</v>
       </c>
@@ -8218,7 +8214,7 @@
         <v>0.99066375714619792</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7.4</v>
       </c>
@@ -8232,7 +8228,7 @@
         <v>0.99188989738562405</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>7.5</v>
       </c>
@@ -8246,7 +8242,7 @@
         <v>0.99311603762505019</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>7.6</v>
       </c>
@@ -8260,7 +8256,7 @@
         <v>0.99434217786447632</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>7.7</v>
       </c>
@@ -8274,7 +8270,7 @@
         <v>0.99556831810390245</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>7.8</v>
       </c>
@@ -8288,7 +8284,7 @@
         <v>0.99679445834332869</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>7.9</v>
       </c>
@@ -8302,7 +8298,7 @@
         <v>0.99802059858275483</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>8</v>
       </c>
@@ -8316,7 +8312,7 @@
         <v>0.99924673882218096</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.1</v>
       </c>
@@ -8330,7 +8326,7 @@
         <v>1.0004728790616071</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>8.1999999999999993</v>
       </c>
@@ -8344,7 +8340,7 @@
         <v>1.0016990193010331</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>8.3000000000000007</v>
       </c>
@@ -8358,7 +8354,7 @@
         <v>1.0029251595404594</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8.4</v>
       </c>
@@ -8372,7 +8368,7 @@
         <v>1.0041512997798856</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>8.5</v>
       </c>
@@ -8386,7 +8382,7 @@
         <v>1.0053774400193116</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>8.6</v>
       </c>
@@ -8400,7 +8396,7 @@
         <v>1.0066035802587379</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>8.6999999999999993</v>
       </c>
@@ -8414,7 +8410,7 @@
         <v>1.0078297204981639</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>8.8000000000000007</v>
       </c>
@@ -8428,7 +8424,7 @@
         <v>1.0090558607375901</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>8.9</v>
       </c>
@@ -8442,7 +8438,7 @@
         <v>1.0102820009770161</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>9</v>
       </c>
@@ -8456,7 +8452,7 @@
         <v>1.0115081412164424</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>9.1</v>
       </c>
@@ -8470,7 +8466,7 @@
         <v>1.0127342814558684</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>9.1999999999999993</v>
       </c>
@@ -8484,7 +8480,7 @@
         <v>1.0139604216952947</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>9.3000000000000007</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>1.0151865619347207</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>9.4</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>1.0164127021741469</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>9.5</v>
       </c>
@@ -8526,7 +8522,7 @@
         <v>1.0176388424135729</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>9.6</v>
       </c>
@@ -8540,7 +8536,7 @@
         <v>1.0188649826529992</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>9.6999999999999993</v>
       </c>
@@ -8554,7 +8550,7 @@
         <v>1.0200911228924254</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>9.8000000000000007</v>
       </c>
@@ -8568,7 +8564,7 @@
         <v>1.0213172631318514</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>9.9</v>
       </c>
@@ -8582,7 +8578,7 @@
         <v>1.0225434033712777</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>10</v>
       </c>
@@ -8596,7 +8592,7 @@
         <v>1.0237695436107037</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>10.1</v>
       </c>
@@ -8610,7 +8606,7 @@
         <v>1.02499568385013</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>10.199999999999999</v>
       </c>
@@ -8624,7 +8620,7 @@
         <v>1.026221824089556</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>10.3</v>
       </c>
@@ -8638,7 +8634,7 @@
         <v>1.0274479643289822</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10.4</v>
       </c>
@@ -8652,7 +8648,7 @@
         <v>1.0286741045684082</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>10.5</v>
       </c>
@@ -8666,7 +8662,7 @@
         <v>1.0299002448078345</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>10.6</v>
       </c>
@@ -8680,7 +8676,7 @@
         <v>1.0311263850472605</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>10.7</v>
       </c>
@@ -8694,7 +8690,7 @@
         <v>1.0323525252866868</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>10.8</v>
       </c>
@@ -8708,7 +8704,7 @@
         <v>1.033578665526113</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>10.9</v>
       </c>
@@ -8722,7 +8718,7 @@
         <v>1.034804805765539</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>11</v>
       </c>
@@ -8736,7 +8732,7 @@
         <v>1.0360309460049653</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>11.1</v>
       </c>
@@ -8750,7 +8746,7 @@
         <v>1.0372570862443913</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11.2</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>1.0384832264838175</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>11.3</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>1.0397093667232435</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>11.4</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>1.0409355069626698</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>11.5</v>
       </c>
@@ -8806,7 +8802,7 @@
         <v>1.0421616472020958</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>11.6</v>
       </c>
@@ -8820,7 +8816,7 @@
         <v>1.0433877874415221</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>11.7</v>
       </c>
@@ -8834,7 +8830,7 @@
         <v>1.0446139276809481</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>11.8</v>
       </c>
@@ -8848,7 +8844,7 @@
         <v>1.0458400679203743</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>11.9</v>
       </c>
@@ -8862,7 +8858,7 @@
         <v>1.0470662081598003</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>12</v>
       </c>
@@ -8876,152 +8872,152 @@
         <v>1.0482923483992266</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E142">
         <v>1.0495184886386528</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E143">
         <v>1.0507446288780788</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E144">
         <v>1.0519707691175051</v>
       </c>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145">
         <v>1.0531969093569311</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146">
         <v>1.0544230495963574</v>
       </c>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147">
         <v>1.0556491898357834</v>
       </c>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148">
         <v>1.0568753300752096</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149">
         <v>1.0581014703146356</v>
       </c>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150">
         <v>1.0593276105540619</v>
       </c>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151">
         <v>1.0605537507934879</v>
       </c>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152">
         <v>1.0617798910329141</v>
       </c>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153">
         <v>1.0630060312723404</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154">
         <v>1.0642321715117664</v>
       </c>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155">
         <v>1.0654583117511927</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156">
         <v>1.0666844519906187</v>
       </c>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157">
         <v>1.0679105922300449</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158">
         <v>1.0691367324694709</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159">
         <v>1.0703628727088972</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160">
         <v>1.0715890129483232</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161">
         <v>1.0728151531877494</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162">
         <v>1.0740412934271755</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163">
         <v>1.0752674336666017</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164">
         <v>1.0764935739060277</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165">
         <v>1.077719714145454</v>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166">
         <v>1.0789458543848802</v>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167">
         <v>1.0801719946243062</v>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168">
         <v>1.0813981348637325</v>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169">
         <v>1.0826242751031585</v>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170">
         <v>1.0838504153425847</v>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171">
         <v>1.0850765555820108</v>
       </c>
@@ -9040,12 +9036,12 @@
       <selection activeCell="E16" sqref="E16:E166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -9062,7 +9058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9079,7 +9075,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9096,7 +9092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9113,7 +9109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9130,7 +9126,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9147,7 +9143,7 @@
         <v>2.7130000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9164,7 +9160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -9181,7 +9177,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -9198,7 +9194,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -9215,7 +9211,7 @@
         <v>2.7130000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -9232,7 +9228,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -9249,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -9266,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -9280,7 +9276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.1</v>
       </c>
@@ -9294,7 +9290,7 @@
         <v>13.555367894997399</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.2</v>
       </c>
@@ -9308,7 +9304,7 @@
         <v>8.7495778791249794</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.3</v>
       </c>
@@ -9322,7 +9318,7 @@
         <v>6.7728517434550399</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.4</v>
       </c>
@@ -9336,7 +9332,7 @@
         <v>5.64758652482797</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.5</v>
       </c>
@@ -9350,7 +9346,7 @@
         <v>4.9051983027709296</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.6</v>
       </c>
@@ -9364,7 +9360,7 @@
         <v>4.3716698987562701</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.7</v>
       </c>
@@ -9378,7 +9374,7 @@
         <v>3.9661138646142802</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.8</v>
       </c>
@@ -9392,7 +9388,7 @@
         <v>3.64534540935</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.9</v>
       </c>
@@ -9406,7 +9402,7 @@
         <v>3.3840114922849698</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -9420,7 +9416,7 @@
         <v>3.1661563813760401</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1.1000000000000001</v>
       </c>
@@ -9434,7 +9430,7 @@
         <v>2.9811897064422701</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1.2</v>
       </c>
@@ -9448,7 +9444,7 @@
         <v>2.8217800163956102</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.3</v>
       </c>
@@ -9462,7 +9458,7 @@
         <v>2.68267547538185</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.4</v>
       </c>
@@ -9476,7 +9472,7 @@
         <v>2.5600059256766201</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1.5</v>
       </c>
@@ -9490,7 +9486,7 @@
         <v>2.45085055118094</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.6</v>
       </c>
@@ -9504,7 +9500,7 @@
         <v>2.3529596394937702</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1.7</v>
       </c>
@@ -9518,7 +9514,7 @@
         <v>2.2645696071943</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.8</v>
       </c>
@@ -9532,7 +9528,7 @@
         <v>2.1842765408475802</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.9</v>
       </c>
@@ -9546,7 +9542,7 @@
         <v>2.1109476131681402</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2</v>
       </c>
@@ -9560,7 +9556,7 @@
         <v>2.04365768977482</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2.1</v>
       </c>
@@ -9574,7 +9570,7 @@
         <v>1.9816430959876301</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2.2000000000000002</v>
       </c>
@@ -9588,7 +9584,7 @@
         <v>1.92426732428182</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2.2999999999999998</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>1.8709952099117499</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2.4</v>
       </c>
@@ -9616,7 +9612,7 @@
         <v>1.8213732155748801</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2.5</v>
       </c>
@@ -9630,7 +9626,7 @@
         <v>1.77501419186022</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.6</v>
       </c>
@@ -9644,7 +9640,7 @@
         <v>1.7315854632713099</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.7</v>
       </c>
@@ -9658,7 +9654,7 @@
         <v>1.6907994170967899</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.8</v>
       </c>
@@ -9672,7 +9668,7 @@
         <v>1.65240599821679</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.9</v>
       </c>
@@ -9686,7 +9682,7 @@
         <v>1.6161866710780399</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3</v>
       </c>
@@ -9700,7 +9696,7 @@
         <v>1.58194952241524</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3.1</v>
       </c>
@@ -9714,7 +9710,7 @@
         <v>1.5495252591609101</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>3.2</v>
       </c>
@@ -9728,7 +9724,7 @@
         <v>1.51876391490535</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3.3</v>
       </c>
@@ -9742,7 +9738,7 @@
         <v>1.48953212168437</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3.4</v>
       </c>
@@ -9756,7 +9752,7 @@
         <v>1.4617108362037301</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3.5</v>
       </c>
@@ -9770,7 +9766,7 @@
         <v>1.43519343392236</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3.6</v>
       </c>
@@ -9784,7 +9780,7 @@
         <v>1.40988410286855</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3.7</v>
       </c>
@@ -9798,7 +9794,7 @@
         <v>1.3856964831884799</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3.8</v>
       </c>
@@ -9812,7 +9808,7 @@
         <v>1.3625525093261299</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>3.9</v>
       </c>
@@ -9826,7 +9822,7 @@
         <v>1.34038142020988</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>4</v>
       </c>
@@ -9840,7 +9836,7 @@
         <v>1.3191189094584701</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>4.0999999999999996</v>
       </c>
@@ -9854,7 +9850,7 @@
         <v>1.2987063928531799</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>4.2</v>
       </c>
@@ -9868,7 +9864,7 @@
         <v>1.2790903744761399</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4.3</v>
       </c>
@@ -9882,7 +9878,7 @@
         <v>1.2602218962307501</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4.4000000000000004</v>
       </c>
@@ -9896,7 +9892,7 @@
         <v>1.2420560581223801</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4.5</v>
       </c>
@@ -9910,7 +9906,7 @@
         <v>1.22455159882746</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4.5999999999999996</v>
       </c>
@@ -9924,7 +9920,7 @@
         <v>1.2076705278234601</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4.7</v>
       </c>
@@ -9938,7 +9934,7 @@
         <v>1.19137780177513</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4.8</v>
       </c>
@@ -9952,7 +9948,7 @@
         <v>1.1756410390385601</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.9000000000000004</v>
       </c>
@@ -9966,7 +9962,7 @@
         <v>1.1604302671040601</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
@@ -9980,7 +9976,7 @@
         <v>1.14571769859265</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>5.0999999999999996</v>
       </c>
@@ -9994,7 +9990,7 @@
         <v>1.1314775320794901</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5.2</v>
       </c>
@@ -10008,7 +10004,7 @@
         <v>1.1176857745664199</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5.3</v>
       </c>
@@ -10022,7 +10018,7 @@
         <v>1.10432008288522</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5.4</v>
       </c>
@@ -10036,7 +10032,7 @@
         <v>1.09135962169843</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5.5</v>
       </c>
@@ -10050,7 +10046,7 @@
         <v>1.0787849360898201</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5.6</v>
       </c>
@@ -10064,7 +10060,7 @@
         <v>1.0665778370107299</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5.7</v>
       </c>
@@ -10078,7 +10074,7 @@
         <v>1.0547212980817999</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5.8</v>
       </c>
@@ -10092,7 +10088,7 @@
         <v>1.0431993624473901</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5.9</v>
       </c>
@@ -10106,7 +10102,7 @@
         <v>1.03199705854916</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>6</v>
       </c>
@@ -10120,7 +10116,7 @@
         <v>1.02110032383</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>6.1</v>
       </c>
@@ -10134,7 +10130,7 @@
         <v>1.0104959355034</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>6.2</v>
       </c>
@@ -10148,7 +10144,7 @@
         <v>1.0001714476302099</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>6.3</v>
       </c>
@@ -10162,7 +10158,7 @@
         <v>0.99011513383702898</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>6.4</v>
       </c>
@@ -10176,7 +10172,7 @@
         <v>0.98031593508968795</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>6.5</v>
       </c>
@@ -10190,7 +10186,7 @@
         <v>0.97076341200482197</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>6.6</v>
       </c>
@@ -10204,7 +10200,7 @@
         <v>0.96144770124206302</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>6.7</v>
       </c>
@@ -10218,7 +10214,7 @@
         <v>0.95235947557193401</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6.8</v>
       </c>
@@ -10232,7 +10228,7 @@
         <v>0.94348990725994297</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>6.9</v>
       </c>
@@ -10246,7 +10242,7 @@
         <v>0.93483063444729297</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>7</v>
       </c>
@@ -10260,7 +10256,7 @@
         <v>0.92637373024355696</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>7.1</v>
       </c>
@@ -10274,7 +10270,7 @@
         <v>0.92291618511183005</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>7.2</v>
       </c>
@@ -10288,7 +10284,7 @@
         <v>0.92528608377507304</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>7.3</v>
       </c>
@@ -10302,7 +10298,7 @@
         <v>0.92765598243831704</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>7.4</v>
       </c>
@@ -10316,7 +10312,7 @@
         <v>0.93002588110156104</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7.5</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>0.93239577976480503</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7.6</v>
       </c>
@@ -10344,7 +10340,7 @@
         <v>0.93476567842804903</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.7</v>
       </c>
@@ -10358,7 +10354,7 @@
         <v>0.93713557709129303</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.8</v>
       </c>
@@ -10372,7 +10368,7 @@
         <v>0.93950547575453702</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7.9</v>
       </c>
@@ -10386,7 +10382,7 @@
         <v>0.94187537441778102</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>8</v>
       </c>
@@ -10400,7 +10396,7 @@
         <v>0.94424527308102502</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>8.1</v>
       </c>
@@ -10414,7 +10410,7 @@
         <v>0.94661517174426901</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>8.1999999999999993</v>
       </c>
@@ -10428,7 +10424,7 @@
         <v>0.94898507040751201</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>8.3000000000000007</v>
       </c>
@@ -10442,7 +10438,7 @@
         <v>0.95135496907075601</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8.4</v>
       </c>
@@ -10456,7 +10452,7 @@
         <v>0.953724867734</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>8.5</v>
       </c>
@@ -10470,7 +10466,7 @@
         <v>0.956094766397244</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.6</v>
       </c>
@@ -10484,7 +10480,7 @@
         <v>0.958464665060488</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>8.6999999999999993</v>
       </c>
@@ -10498,7 +10494,7 @@
         <v>0.96083456372373199</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>8.8000000000000007</v>
       </c>
@@ -10512,7 +10508,7 @@
         <v>0.96320446238697599</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8.9</v>
       </c>
@@ -10526,7 +10522,7 @@
         <v>0.96557436105021999</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>9</v>
       </c>
@@ -10540,7 +10536,7 @@
         <v>0.96794425971346398</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>9.1</v>
       </c>
@@ -10554,7 +10550,7 @@
         <v>0.97031415837670698</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>9.1999999999999993</v>
       </c>
@@ -10568,7 +10564,7 @@
         <v>0.97268405703995098</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>9.3000000000000007</v>
       </c>
@@ -10582,7 +10578,7 @@
         <v>0.97505395570319497</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>9.4</v>
       </c>
@@ -10596,7 +10592,7 @@
         <v>0.97742385436643897</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>9.5</v>
       </c>
@@ -10610,7 +10606,7 @@
         <v>0.97979375302968297</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>9.6</v>
       </c>
@@ -10624,7 +10620,7 @@
         <v>0.98216365169292696</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>9.6999999999999993</v>
       </c>
@@ -10638,7 +10634,7 @@
         <v>0.98453355035617096</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>9.8000000000000007</v>
       </c>
@@ -10652,7 +10648,7 @@
         <v>0.98690344901941496</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>9.9</v>
       </c>
@@ -10666,7 +10662,7 @@
         <v>0.98927334768265895</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>10</v>
       </c>
@@ -10680,7 +10676,7 @@
         <v>0.99164324634590295</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>10.1</v>
       </c>
@@ -10694,7 +10690,7 @@
         <v>0.99401314500914595</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>10.199999999999999</v>
       </c>
@@ -10708,7 +10704,7 @@
         <v>0.99638304367238995</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>10.3</v>
       </c>
@@ -10722,7 +10718,7 @@
         <v>0.99875294233563405</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>10.4</v>
       </c>
@@ -10736,7 +10732,7 @@
         <v>1.0011228409988699</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>10.5</v>
       </c>
@@ -10750,7 +10746,7 @@
         <v>1.00349273966212</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>10.6</v>
       </c>
@@ -10764,7 +10760,7 @@
         <v>1.0058626383253599</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>10.7</v>
       </c>
@@ -10778,7 +10774,7 @@
         <v>1.00823253698861</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>10.8</v>
       </c>
@@ -10792,7 +10788,7 @@
         <v>1.0106024356518499</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10.9</v>
       </c>
@@ -10806,7 +10802,7 @@
         <v>1.01297233431509</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>11</v>
       </c>
@@ -10820,7 +10816,7 @@
         <v>1.0153422329783399</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>11.1</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>1.01771213164158</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>11.2</v>
       </c>
@@ -10848,7 +10844,7 @@
         <v>1.0200820303048199</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>11.3</v>
       </c>
@@ -10862,7 +10858,7 @@
         <v>1.02245192896807</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>11.4</v>
       </c>
@@ -10876,7 +10872,7 @@
         <v>1.0248218276313099</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>11.5</v>
       </c>
@@ -10890,7 +10886,7 @@
         <v>1.02719172629456</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>11.6</v>
       </c>
@@ -10904,7 +10900,7 @@
         <v>1.0295616249577999</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11.7</v>
       </c>
@@ -10918,7 +10914,7 @@
         <v>1.03193152362104</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>11.8</v>
       </c>
@@ -10932,7 +10928,7 @@
         <v>1.0343014222842899</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>11.9</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>1.03667132094753</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>12</v>
       </c>
@@ -10960,7 +10956,7 @@
         <v>1.0390412196107801</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>12.1</v>
       </c>
@@ -10974,7 +10970,7 @@
         <v>1.04141111827402</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>12.2</v>
       </c>
@@ -10988,7 +10984,7 @@
         <v>1.0437810169372601</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>12.3</v>
       </c>
@@ -11002,7 +10998,7 @@
         <v>1.04615091560051</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>12.4</v>
       </c>
@@ -11016,7 +11012,7 @@
         <v>1.0485208142637501</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>12.5</v>
       </c>
@@ -11030,7 +11026,7 @@
         <v>1.050890712927</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>12.6</v>
       </c>
@@ -11044,7 +11040,7 @@
         <v>1.0532606115902401</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>12.7</v>
       </c>
@@ -11058,7 +11054,7 @@
         <v>1.05563051025348</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>12.8</v>
       </c>
@@ -11072,7 +11068,7 @@
         <v>1.0580004089167301</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>12.9</v>
       </c>
@@ -11086,7 +11082,7 @@
         <v>1.06037030757997</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>13</v>
       </c>
@@ -11100,7 +11096,7 @@
         <v>1.0627402062432101</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>13.1</v>
       </c>
@@ -11114,7 +11110,7 @@
         <v>1.06511010490646</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>13.2</v>
       </c>
@@ -11128,7 +11124,7 @@
         <v>1.0674800035697001</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>13.3</v>
       </c>
@@ -11142,7 +11138,7 @@
         <v>1.06984990223295</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>13.4</v>
       </c>
@@ -11156,7 +11152,7 @@
         <v>1.0722198008961901</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>13.5</v>
       </c>
@@ -11170,7 +11166,7 @@
         <v>1.07458969955943</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>13.6</v>
       </c>
@@ -11184,7 +11180,7 @@
         <v>1.0769595982226801</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>13.7</v>
       </c>
@@ -11198,7 +11194,7 @@
         <v>1.0793294968859199</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.8</v>
       </c>
@@ -11212,7 +11208,7 @@
         <v>1.0816993955491701</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>13.9</v>
       </c>
@@ -11226,7 +11222,7 @@
         <v>1.0840692942124099</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>14</v>
       </c>
@@ -11240,7 +11236,7 @@
         <v>1.0864391928756501</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>14.1</v>
       </c>
@@ -11254,7 +11250,7 @@
         <v>1.0888090915388999</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>14.2</v>
       </c>
@@ -11268,7 +11264,7 @@
         <v>1.09117899020214</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>14.3</v>
       </c>
@@ -11282,7 +11278,7 @@
         <v>1.0935488888653899</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>14.4</v>
       </c>
@@ -11296,7 +11292,7 @@
         <v>1.09591878752863</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>14.5</v>
       </c>
@@ -11310,7 +11306,7 @@
         <v>1.0982886861918699</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>14.6</v>
       </c>
@@ -11324,7 +11320,7 @@
         <v>1.10065858485512</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>14.7</v>
       </c>
@@ -11338,7 +11334,7 @@
         <v>1.1030284835183599</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>14.8</v>
       </c>
@@ -11352,7 +11348,7 @@
         <v>1.10539838218161</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>14.9</v>
       </c>
@@ -11366,7 +11362,7 @@
         <v>1.1077682808448499</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>15</v>
       </c>
@@ -11392,7 +11388,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11405,294 +11401,294 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>78</v>
       </c>
